--- a/Species_list_SR_detailed.xlsx
+++ b/Species_list_SR_detailed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wynnekat/Seed-Rain-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBADC10-346F-564A-8F5F-216AC2F46406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53925A1B-9DF5-1041-9584-E7EC5B5869BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4220" yWindow="1680" windowWidth="18600" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="478">
   <si>
     <t>SPP6</t>
   </si>
@@ -86,9 +86,6 @@
     <t>BOLAST</t>
   </si>
   <si>
-    <t>BROSPP</t>
-  </si>
-  <si>
     <t>CAPBUR</t>
   </si>
   <si>
@@ -461,12 +458,6 @@
     <t>Boltonia asteroides</t>
   </si>
   <si>
-    <t>Bromus sp</t>
-  </si>
-  <si>
-    <t>Agalinis sp</t>
-  </si>
-  <si>
     <t>Capsella bursa-pastoris</t>
   </si>
   <si>
@@ -518,9 +509,6 @@
     <t>Daucus carota</t>
   </si>
   <si>
-    <t>Desmodium sp</t>
-  </si>
-  <si>
     <t>Dianthus armeria</t>
   </si>
   <si>
@@ -593,9 +581,6 @@
     <t>Hypericum punctatum</t>
   </si>
   <si>
-    <t>Juncus sp</t>
-  </si>
-  <si>
     <t>Koeleria macrantha</t>
   </si>
   <si>
@@ -653,9 +638,6 @@
     <t>Oenothera filiformis</t>
   </si>
   <si>
-    <t>Oenothera sp</t>
-  </si>
-  <si>
     <t>Oxalis dillenii</t>
   </si>
   <si>
@@ -836,9 +818,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Chess</t>
-  </si>
-  <si>
     <t>Shepherd's purse</t>
   </si>
   <si>
@@ -956,9 +935,6 @@
     <t>annuus and strigosus</t>
   </si>
   <si>
-    <t>racemosus and japonicus</t>
-  </si>
-  <si>
     <t>Boneset</t>
   </si>
   <si>
@@ -1199,9 +1175,6 @@
     <t>New England aster</t>
   </si>
   <si>
-    <t>Symphyotrichum sp</t>
-  </si>
-  <si>
     <t>New world asters</t>
   </si>
   <si>
@@ -1421,30 +1394,9 @@
     <t>Citations</t>
   </si>
   <si>
-    <t>Bruhl &amp; Wilson 2007</t>
-  </si>
-  <si>
-    <t>Sage et al. 2007</t>
-  </si>
-  <si>
-    <t>Sage et al. 1999, Sage 2003</t>
-  </si>
-  <si>
-    <t>Sage 2003, Sage 2016</t>
-  </si>
-  <si>
-    <t>Kellogg 1999, Sage 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sage 2003, Sage 2016</t>
-  </si>
-  <si>
     <t>C3-C4</t>
   </si>
   <si>
-    <t>Christin et al 2010</t>
-  </si>
-  <si>
     <t>this species has characteristics intermediate of C3 and C4 plants (enlarged bundle sheath cells (C4), agreggated chloroplasts (C4), but C3 like carbon isotope ratios)</t>
   </si>
   <si>
@@ -1460,10 +1412,64 @@
     <t>VEROSP</t>
   </si>
   <si>
-    <t>Veronica sp</t>
-  </si>
-  <si>
     <t>ECHPAL</t>
+  </si>
+  <si>
+    <t>Sage 2003, Sage 2016; Yatskievych 1999</t>
+  </si>
+  <si>
+    <t>Sage 2003, Sage 2016; Yatsckievych 2013; Ladd &amp; Thomas 2015</t>
+  </si>
+  <si>
+    <t>Christin et al 2010;  Yatsckievych 2013; Ladd &amp; Thomas 2015</t>
+  </si>
+  <si>
+    <t>Sage et al. 1999, Sage 2003; Yatskievych 2006; Ladd &amp; Thomas 2015</t>
+  </si>
+  <si>
+    <t>Kellogg 1999, Sage 2016; Yatskievych 2006; Ladd &amp; Thomas 2015</t>
+  </si>
+  <si>
+    <t>Yatskievych 1999; Ladd &amp; Thomas 2015</t>
+  </si>
+  <si>
+    <t>Sage et al. 2007; Yatskievych 2006; Ladd &amp; Thomas 2015</t>
+  </si>
+  <si>
+    <t>Sage 2003, Sage 2016; Yatskievych 2006; Ladd &amp; Thomas 2015</t>
+  </si>
+  <si>
+    <t>Bruhl &amp; Wilson 2007; Yatskievych 1999; Ladd &amp; Thomas 2015</t>
+  </si>
+  <si>
+    <t>Agalinis sp.</t>
+  </si>
+  <si>
+    <t>BROJAP</t>
+  </si>
+  <si>
+    <t>Bromus japonicus</t>
+  </si>
+  <si>
+    <t>Japanese brome</t>
+  </si>
+  <si>
+    <t>Desmodium sp.</t>
+  </si>
+  <si>
+    <t>Juncus sp.</t>
+  </si>
+  <si>
+    <t>Oenothera sp.</t>
+  </si>
+  <si>
+    <t>Veronica sp.</t>
+  </si>
+  <si>
+    <t>Symphyotrichum sp.</t>
+  </si>
+  <si>
+    <t>arvensis and peregrina</t>
   </si>
 </sst>
 </file>
@@ -1516,18 +1522,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1542,7 +1542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1553,8 +1553,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1897,11 +1895,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
@@ -1911,7 +1910,7 @@
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.33203125" customWidth="1"/>
     <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1920,37 +1919,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1958,34 +1957,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1993,34 +1992,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H3" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I3" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2028,37 +2027,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>142</v>
+        <v>468</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D4" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G4" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H4" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I4" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J4" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K4" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="L4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2066,31 +2065,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D5" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H5" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I5" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J5" t="s">
-        <v>455</v>
+        <v>446</v>
+      </c>
+      <c r="L5" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2098,31 +2100,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D6" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H6" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I6" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J6" t="s">
-        <v>455</v>
+        <v>446</v>
+      </c>
+      <c r="L6" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2130,34 +2135,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="H7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I7" t="s">
-        <v>451</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
+      </c>
+      <c r="J7" t="s">
+        <v>447</v>
       </c>
       <c r="L7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2165,34 +2170,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D8" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H8" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I8" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J8" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2200,34 +2205,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H9" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="I9" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J9" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L9" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2235,34 +2240,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D10" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E10" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H10" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I10" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J10" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L10" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2270,31 +2275,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I11" t="s">
+        <v>443</v>
+      </c>
+      <c r="J11" t="s">
         <v>447</v>
       </c>
-      <c r="I11" t="s">
-        <v>452</v>
-      </c>
-      <c r="J11" t="s">
-        <v>456</v>
+      <c r="L11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2302,34 +2310,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D12" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H12" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="I12" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J12" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2337,34 +2345,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E13" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G13" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H13" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I13" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="J13" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L13" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2372,34 +2380,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D14" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E14" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H14" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I14" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="J14" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2407,34 +2415,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D15" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E15" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="H15" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I15" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J15" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L15" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2442,1259 +2450,1274 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D16" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E16" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H16" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I16" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J16" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>469</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>141</v>
+        <v>470</v>
       </c>
       <c r="C17" t="s">
-        <v>266</v>
+        <v>471</v>
       </c>
       <c r="D17" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="E17" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F17" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G17" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H17" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I17" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J17" t="s">
-        <v>455</v>
-      </c>
-      <c r="K17" t="s">
-        <v>306</v>
+        <v>446</v>
+      </c>
+      <c r="L17" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D18" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E18" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F18" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G18" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H18" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I18" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J18" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L18" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D19" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E19" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H19" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I19" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J19" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L19" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D20" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E20" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F20">
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H20" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I20" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J20" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L20" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D21" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E21" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H21" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I21" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J21" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L21" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D22" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E22" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F22">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H22" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I22" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J22" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L22" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D23" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E23" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F23" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H23" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I23" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J23" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K23" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="L23" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D24" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E24" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F24">
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H24" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I24" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J24" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L24" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D25" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E25" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="H25" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I25" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="J25" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K25" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="L25" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D26" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E26" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H26" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="I26" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J26" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L26" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D27" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E27" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="H27" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I27" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J27" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L27" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D28" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E28" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F28">
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H28" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I28" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="J28" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L28" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D29" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H29" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I29" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J29" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L29" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D30" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E30" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F30">
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H30" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I30" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J30" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L30" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D31" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E31" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F31">
         <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H31" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I31" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J31" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D32" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E32" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F32">
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H32" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I32" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J32" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L32" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C33" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D33" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E33" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F33">
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H33" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="I33" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J33" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L33" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D34" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E34" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F34">
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H34" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I34" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J34" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L34" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D35" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E35" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I35" t="s">
+        <v>443</v>
+      </c>
+      <c r="J35" t="s">
         <v>447</v>
       </c>
-      <c r="I35" t="s">
-        <v>452</v>
-      </c>
-      <c r="J35" t="s">
-        <v>456</v>
-      </c>
       <c r="L35" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D36" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E36" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H36" t="s">
+        <v>438</v>
+      </c>
+      <c r="I36" t="s">
+        <v>443</v>
+      </c>
+      <c r="J36" t="s">
         <v>447</v>
       </c>
-      <c r="I36" t="s">
-        <v>452</v>
-      </c>
-      <c r="J36" t="s">
-        <v>456</v>
-      </c>
       <c r="L36" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D37" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E37" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F37" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G37" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H37" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I37" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="J37" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L37" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>160</v>
+        <v>472</v>
       </c>
       <c r="C38" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D38" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E38" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F38" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G38" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H38" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="I38" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J38" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K38" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="L38" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D39" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E39" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F39" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G39" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="H39" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I39" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="J39" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L39" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D40" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E40" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H40" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I40" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J40" t="s">
-        <v>455</v>
+        <v>446</v>
+      </c>
+      <c r="L40" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C41" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D41" t="s">
+        <v>399</v>
+      </c>
+      <c r="E41" t="s">
+        <v>255</v>
+      </c>
+      <c r="F41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G41" t="s">
         <v>408</v>
       </c>
-      <c r="E41" t="s">
-        <v>261</v>
-      </c>
-      <c r="F41" t="s">
-        <v>249</v>
-      </c>
-      <c r="G41" t="s">
-        <v>417</v>
-      </c>
       <c r="H41" t="s">
+        <v>438</v>
+      </c>
+      <c r="I41" t="s">
+        <v>442</v>
+      </c>
+      <c r="J41" t="s">
         <v>447</v>
       </c>
-      <c r="I41" t="s">
-        <v>451</v>
-      </c>
-      <c r="J41" t="s">
-        <v>456</v>
+      <c r="L41" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D42" t="s">
+        <v>399</v>
+      </c>
+      <c r="E42" t="s">
+        <v>255</v>
+      </c>
+      <c r="F42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G42" t="s">
         <v>408</v>
       </c>
-      <c r="E42" t="s">
-        <v>261</v>
-      </c>
-      <c r="F42" t="s">
-        <v>249</v>
-      </c>
-      <c r="G42" t="s">
-        <v>417</v>
-      </c>
       <c r="H42" t="s">
+        <v>438</v>
+      </c>
+      <c r="I42" t="s">
+        <v>442</v>
+      </c>
+      <c r="J42" t="s">
         <v>447</v>
       </c>
-      <c r="I42" t="s">
-        <v>451</v>
-      </c>
-      <c r="J42" t="s">
-        <v>456</v>
+      <c r="L42" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D43" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E43" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F43">
         <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H43" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I43" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J43" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L43" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D44" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E44" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G44" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H44" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I44" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J44" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K44" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L44" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D45" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F45" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G45" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H45" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I45" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="J45" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L45" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D46" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E46" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F46">
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H46" t="s">
+        <v>438</v>
+      </c>
+      <c r="I46" t="s">
+        <v>443</v>
+      </c>
+      <c r="J46" t="s">
         <v>447</v>
       </c>
-      <c r="I46" t="s">
-        <v>452</v>
-      </c>
-      <c r="J46" t="s">
-        <v>456</v>
+      <c r="L46" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C47" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D47" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E47" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H47" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I47" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J47" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L47" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D48" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E48" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F48" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G48" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H48" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I48" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J48" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K48" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L48" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D49" t="s">
+        <v>399</v>
+      </c>
+      <c r="E49" t="s">
+        <v>255</v>
+      </c>
+      <c r="F49" t="s">
+        <v>243</v>
+      </c>
+      <c r="G49" t="s">
         <v>408</v>
       </c>
-      <c r="E49" t="s">
-        <v>261</v>
-      </c>
-      <c r="F49" t="s">
-        <v>249</v>
-      </c>
-      <c r="G49" t="s">
-        <v>417</v>
-      </c>
       <c r="H49" t="s">
+        <v>438</v>
+      </c>
+      <c r="I49" t="s">
+        <v>442</v>
+      </c>
+      <c r="J49" t="s">
         <v>447</v>
       </c>
-      <c r="I49" t="s">
-        <v>451</v>
-      </c>
-      <c r="J49" t="s">
-        <v>456</v>
+      <c r="L49" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D50" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E50" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F50">
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H50" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I50" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J50" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L50" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C51" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D51" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E51" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F51">
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H51" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I51" t="s">
-        <v>452</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
+      </c>
+      <c r="J51" t="s">
+        <v>446</v>
       </c>
       <c r="L51" t="s">
         <v>466</v>
@@ -3702,2667 +3725,2780 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C52" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D52" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E52" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F52" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G52" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H52" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I52" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J52" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K52" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="L52" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D53" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E53" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F53">
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H53" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I53" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J53" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L53" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D54" t="s">
+        <v>399</v>
+      </c>
+      <c r="E54" t="s">
+        <v>255</v>
+      </c>
+      <c r="F54" t="s">
+        <v>243</v>
+      </c>
+      <c r="G54" t="s">
         <v>408</v>
       </c>
-      <c r="E54" t="s">
-        <v>261</v>
-      </c>
-      <c r="F54" t="s">
-        <v>249</v>
-      </c>
-      <c r="G54" t="s">
-        <v>417</v>
-      </c>
       <c r="H54" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I54" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J54" t="s">
-        <v>455</v>
+        <v>446</v>
+      </c>
+      <c r="L54" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D55" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E55" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F55">
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H55" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I55" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J55" t="s">
-        <v>455</v>
+        <v>446</v>
+      </c>
+      <c r="L55" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C56" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D56" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E56" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F56" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G56" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="H56" t="s">
-        <v>413</v>
-      </c>
-      <c r="I56" s="6"/>
+        <v>404</v>
+      </c>
+      <c r="I56" t="s">
+        <v>449</v>
+      </c>
       <c r="J56" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K56" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="L56" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C57" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D57" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E57" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F57">
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="H57" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I57" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J57" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L57" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D58" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E58" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F58" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G58" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="H58" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I58" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J58" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K58" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="L58" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D59" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E59" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="H59" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I59" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J59" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L59" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D60" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E60" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F60">
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H60" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I60" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J60" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L60" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C61" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D61" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E61" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F61">
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H61" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I61" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J61" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L61" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D62" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E62" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H62" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I62" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J62" t="s">
-        <v>455</v>
+        <v>446</v>
+      </c>
+      <c r="L62" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D63" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E63" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F63">
         <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="H63" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I63" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J63" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L63" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D64" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E64" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F64">
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="H64" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I64" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J64" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L64" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C65" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D65" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E65" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F65" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G65" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="H65" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I65" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J65" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L65" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>185</v>
+        <v>473</v>
       </c>
       <c r="C66" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D66" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E66" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F66" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G66" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="H66" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I66" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J66" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K66" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="L66" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C67" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D67" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E67" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F67">
         <v>6</v>
       </c>
       <c r="G67" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H67" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I67" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J67" t="s">
-        <v>455</v>
+        <v>446</v>
+      </c>
+      <c r="L67" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C68" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E68" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F68" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G68" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H68" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="I68" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J68" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K68" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L68" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C69" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="D69" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E69" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H69" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I69" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="J69" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L69" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D70" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E70" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F70">
         <v>6</v>
       </c>
       <c r="G70" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H70" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="I70" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J70" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L70" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C71" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D71" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E71" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F71" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G71" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H71" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="I71" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J71" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L71" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C72" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D72" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E72" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F72">
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H72" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="I72" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J72" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L72" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C73" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D73" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E73" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F73" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G73" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H73" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I73" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J73" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L73" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C74" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D74" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E74" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F74">
         <v>6</v>
       </c>
       <c r="G74" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H74" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I74" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J74" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L74" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C75" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D75" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E75" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F75">
         <v>5</v>
       </c>
       <c r="G75" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="H75" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I75" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J75" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L75" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C76" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D76" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E76" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F76">
         <v>5</v>
       </c>
       <c r="G76" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="H76" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I76" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J76" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L76" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C77" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D77" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E77" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F77">
         <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="H77" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I77" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J77" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L77" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C78" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D78" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E78" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F78" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G78" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H78" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I78" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J78" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K78" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="L78" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C79" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D79" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E79" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F79">
         <v>6</v>
       </c>
       <c r="G79" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="H79" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I79" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J79" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L79" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C80" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D80" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E80" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F80" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G80" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H80" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="I80" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="J80" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L80" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C81" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E81" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F81" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G81" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H81" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="I81" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="J81" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K81" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L81" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C82" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D82" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E82" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F82" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G82" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="H82" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I82" t="s">
-        <v>451</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>469</v>
+        <v>442</v>
+      </c>
+      <c r="J82" t="s">
+        <v>452</v>
+      </c>
+      <c r="K82" t="s">
+        <v>453</v>
       </c>
       <c r="L82" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C83" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D83" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E83" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F83">
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="H83" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I83" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J83" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L83" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C84" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D84" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E84" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F84">
         <v>2</v>
       </c>
       <c r="G84" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="H84" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I84" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J84" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L84" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C85" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D85" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E85" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="H85" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I85" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J85" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L85" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>205</v>
+        <v>474</v>
       </c>
       <c r="C86" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D86" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E86" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F86" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G86" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="H86" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I86" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="J86" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K86" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L86" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C87" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D87" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E87" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="H87" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I87" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J87" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L87" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C88" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D88" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E88" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H88" t="s">
+        <v>438</v>
+      </c>
+      <c r="I88" t="s">
+        <v>442</v>
+      </c>
+      <c r="J88" t="s">
         <v>447</v>
       </c>
-      <c r="I88" t="s">
-        <v>451</v>
-      </c>
-      <c r="J88" t="s">
-        <v>456</v>
+      <c r="L88" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C89" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D89" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E89" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F89">
         <v>3</v>
       </c>
       <c r="G89" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="H89" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I89" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J89" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L89" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C90" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D90" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E90" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F90" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G90" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="H90" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I90" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J90" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L90" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C91" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D91" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E91" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F91">
         <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="H91" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="I91" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J91" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L91" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C92" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D92" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E92" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="H92" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I92" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J92" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L92" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C93" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D93" t="s">
+        <v>399</v>
+      </c>
+      <c r="E93" t="s">
+        <v>255</v>
+      </c>
+      <c r="F93" t="s">
+        <v>243</v>
+      </c>
+      <c r="G93" t="s">
         <v>408</v>
       </c>
-      <c r="E93" t="s">
-        <v>261</v>
-      </c>
-      <c r="F93" t="s">
-        <v>249</v>
-      </c>
-      <c r="G93" t="s">
-        <v>417</v>
-      </c>
       <c r="H93" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I93" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J93" t="s">
-        <v>455</v>
+        <v>446</v>
+      </c>
+      <c r="L93" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C94" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D94" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E94" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F94" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G94" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="H94" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I94" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J94" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K94" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L94" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C95" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D95" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E95" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F95">
         <v>5</v>
       </c>
       <c r="G95" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="H95" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I95" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J95" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L95" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C96" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D96" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E96" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F96">
         <v>4</v>
       </c>
       <c r="G96" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="H96" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I96" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J96" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L96" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C97" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D97" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E97" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F97">
         <v>4</v>
       </c>
       <c r="G97" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H97" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="I97" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J97" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L97" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C98" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D98" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E98" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F98" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G98" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="H98" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="I98" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J98" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K98" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L98" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C99" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D99" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E99" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H99" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="I99" t="s">
+        <v>442</v>
       </c>
       <c r="J99" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L99" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C100" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D100" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E100" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F100">
         <v>5</v>
       </c>
       <c r="G100" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H100" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="I100" t="s">
+        <v>443</v>
       </c>
       <c r="J100" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L100" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C101" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D101" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E101" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F101" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G101" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="H101" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="I101" t="s">
+        <v>443</v>
       </c>
       <c r="J101" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L101" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C102" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D102" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E102" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F102">
         <v>4</v>
       </c>
       <c r="G102" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="H102" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="I102" t="s">
+        <v>443</v>
       </c>
       <c r="J102" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L102" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C103" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D103" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E103" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F103">
         <v>5</v>
       </c>
       <c r="G103" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H103" t="s">
+        <v>438</v>
+      </c>
+      <c r="I103" t="s">
+        <v>443</v>
+      </c>
+      <c r="J103" t="s">
         <v>447</v>
       </c>
-      <c r="I103" t="s">
-        <v>452</v>
-      </c>
-      <c r="J103" t="s">
-        <v>456</v>
+      <c r="L103" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C104" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D104" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E104" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F104">
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H104" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I104" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J104" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L104" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D105" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E105" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F105">
         <v>5</v>
       </c>
       <c r="G105" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H105" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I105" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J105" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L105" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C106" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D106" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E106" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F106">
         <v>6</v>
       </c>
       <c r="G106" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H106" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I106" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J106" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L106" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C107" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D107" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E107" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F107">
         <v>4</v>
       </c>
       <c r="G107" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H107" t="s">
+        <v>438</v>
+      </c>
+      <c r="I107" t="s">
+        <v>443</v>
+      </c>
+      <c r="J107" t="s">
         <v>447</v>
       </c>
-      <c r="I107" t="s">
-        <v>452</v>
-      </c>
-      <c r="J107" t="s">
-        <v>456</v>
+      <c r="L107" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C108" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D108" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E108" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F108" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G108" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H108" t="s">
+        <v>438</v>
+      </c>
+      <c r="I108" t="s">
+        <v>442</v>
+      </c>
+      <c r="J108" t="s">
         <v>447</v>
       </c>
-      <c r="I108" t="s">
-        <v>451</v>
-      </c>
-      <c r="J108" t="s">
-        <v>456</v>
-      </c>
       <c r="K108" t="s">
-        <v>400</v>
+        <v>391</v>
+      </c>
+      <c r="L108" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C109" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D109" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E109" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F109">
         <v>2</v>
       </c>
       <c r="G109" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="H109" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="I109" t="s">
+        <v>442</v>
       </c>
       <c r="J109" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L109" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C110" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D110" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E110" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F110">
         <v>4</v>
       </c>
       <c r="G110" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H110" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="I110" t="s">
+        <v>443</v>
       </c>
       <c r="J110" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L110" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C111" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D111" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E111" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H111" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="I111" t="s">
+        <v>443</v>
       </c>
       <c r="J111" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L111" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C112" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D112" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E112" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F112">
         <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H112" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="I112" t="s">
+        <v>443</v>
       </c>
       <c r="J112" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L112" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C113" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D113" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E113" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F113">
         <v>5</v>
       </c>
       <c r="G113" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H113" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="I113" t="s">
+        <v>443</v>
       </c>
       <c r="J113" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L113" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C114" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D114" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E114" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F114">
         <v>4</v>
       </c>
       <c r="G114" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H114" t="s">
+        <v>438</v>
+      </c>
+      <c r="I114" t="s">
+        <v>443</v>
+      </c>
+      <c r="J114" t="s">
         <v>447</v>
       </c>
-      <c r="I114" t="s">
-        <v>452</v>
-      </c>
-      <c r="J114" t="s">
-        <v>456</v>
+      <c r="L114" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C115" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D115" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E115" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F115">
         <v>5</v>
       </c>
       <c r="G115" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H115" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I115" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="J115" t="s">
-        <v>455</v>
+        <v>446</v>
+      </c>
+      <c r="L115" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C116" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D116" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E116" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F116">
         <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H116" t="s">
+        <v>438</v>
+      </c>
+      <c r="I116" t="s">
+        <v>443</v>
+      </c>
+      <c r="J116" t="s">
         <v>447</v>
       </c>
-      <c r="I116" t="s">
-        <v>452</v>
-      </c>
-      <c r="J116" t="s">
-        <v>456</v>
+      <c r="L116" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C117" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D117" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E117" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F117">
         <v>6</v>
       </c>
       <c r="G117" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H117" t="s">
+        <v>438</v>
+      </c>
+      <c r="I117" t="s">
+        <v>443</v>
+      </c>
+      <c r="J117" t="s">
         <v>447</v>
       </c>
-      <c r="I117" t="s">
-        <v>452</v>
-      </c>
-      <c r="J117" t="s">
-        <v>456</v>
+      <c r="L117" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C118" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D118" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E118" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F118">
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H118" t="s">
-        <v>448</v>
+        <v>439</v>
+      </c>
+      <c r="I118" t="s">
+        <v>443</v>
       </c>
       <c r="J118" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L118" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C119" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D119" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E119" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F119">
         <v>4</v>
       </c>
       <c r="G119" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H119" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="I119" t="s">
+        <v>443</v>
       </c>
       <c r="J119" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L119" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>387</v>
+        <v>476</v>
       </c>
       <c r="C120" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D120" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E120" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F120" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G120" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H120" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="I120" t="s">
+        <v>443</v>
       </c>
       <c r="J120" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K120" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="L120" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C121" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D121" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E121" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F121" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G121" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H121" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="I121" t="s">
+        <v>443</v>
       </c>
       <c r="J121" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L121" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C122" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D122" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E122" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F122" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G122" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H122" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="I122" t="s">
+        <v>442</v>
       </c>
       <c r="J122" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L122" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C123" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D123" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F123">
         <v>3</v>
       </c>
       <c r="G123" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="H123" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="I123" t="s">
+        <v>443</v>
       </c>
       <c r="J123" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L123" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C124" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D124" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F124">
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H124" t="s">
+        <v>438</v>
+      </c>
+      <c r="I124" t="s">
+        <v>443</v>
+      </c>
+      <c r="J124" t="s">
         <v>447</v>
       </c>
-      <c r="I124" t="s">
-        <v>452</v>
-      </c>
-      <c r="J124" t="s">
-        <v>456</v>
+      <c r="L124" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C125" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D125" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F125">
         <v>2</v>
       </c>
       <c r="G125" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="H125" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="I125" t="s">
+        <v>442</v>
       </c>
       <c r="J125" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L125" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C126" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D126" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E126" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F126" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G126" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="H126" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="I126" t="s">
+        <v>442</v>
       </c>
       <c r="J126" t="s">
-        <v>455</v>
+        <v>446</v>
+      </c>
+      <c r="K126" t="s">
+        <v>477</v>
+      </c>
+      <c r="L126" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C127" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D127" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F127">
         <v>4</v>
       </c>
       <c r="G127" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="H127" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="I127" t="s">
+        <v>443</v>
       </c>
       <c r="J127" t="s">
-        <v>455</v>
+        <v>446</v>
+      </c>
+      <c r="L127" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>123</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C128" t="s">
+        <v>388</v>
+      </c>
+      <c r="D128" t="s">
+        <v>400</v>
+      </c>
+      <c r="E128" t="s">
+        <v>239</v>
+      </c>
+      <c r="F128" t="s">
+        <v>243</v>
+      </c>
+      <c r="G128" t="s">
+        <v>406</v>
+      </c>
+      <c r="H128" t="s">
+        <v>404</v>
+      </c>
+      <c r="I128" t="s">
+        <v>443</v>
+      </c>
+      <c r="J128" t="s">
+        <v>446</v>
+      </c>
+      <c r="K128" t="s">
+        <v>392</v>
+      </c>
+      <c r="L128" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>124</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C128" t="s">
-        <v>397</v>
-      </c>
-      <c r="D128" t="s">
-        <v>409</v>
-      </c>
-      <c r="E128" t="s">
-        <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>249</v>
-      </c>
-      <c r="G128" t="s">
-        <v>415</v>
-      </c>
-      <c r="H128" t="s">
-        <v>413</v>
-      </c>
-      <c r="J128" t="s">
-        <v>455</v>
-      </c>
-      <c r="K128" t="s">
-        <v>401</v>
-      </c>
-      <c r="L128" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>125</v>
-      </c>
       <c r="B129" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C129" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D129" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F129">
         <v>2</v>
       </c>
       <c r="G129" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H129" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I129" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J129" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K129" t="s">
-        <v>399</v>
+        <v>390</v>
+      </c>
+      <c r="L129" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/Species_list_SR_detailed.xlsx
+++ b/Species_list_SR_detailed.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wynnekat/Seed-Rain-Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wynnekat/SR---New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53925A1B-9DF5-1041-9584-E7EC5B5869BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BA7C39-8333-2740-B2B3-E79213738DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="1680" windowWidth="18600" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7100" yWindow="740" windowWidth="18600" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1895,7 +1895,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6502,6 +6502,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="G1:G129" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Species_list_SR_detailed.xlsx
+++ b/Species_list_SR_detailed.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wynnekat/SR---New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BA7C39-8333-2740-B2B3-E79213738DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CFA85F-5A3E-EE48-B000-5310055F07C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7100" yWindow="740" windowWidth="18600" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="740" windowWidth="25340" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="482">
   <si>
     <t>SPP6</t>
   </si>
@@ -1226,9 +1226,6 @@
     <t>parviflora and hirsuta</t>
   </si>
   <si>
-    <t>glomeratum and fontanum</t>
-  </si>
-  <si>
     <t>Desmodium sessilifolium, paniculatum, glabellum, and illinoense</t>
   </si>
   <si>
@@ -1469,13 +1466,31 @@
     <t>Symphyotrichum sp.</t>
   </si>
   <si>
-    <t>arvensis and peregrina</t>
+    <t>Mean_Seed_Mass</t>
+  </si>
+  <si>
+    <t>Erica mass</t>
+  </si>
+  <si>
+    <t>Erica mass; glomeratum and fontanum</t>
+  </si>
+  <si>
+    <t>Erica mass (omitted outlier so 20 seed average)</t>
+  </si>
+  <si>
+    <t>Erica mass; arvensis and peregrina</t>
+  </si>
+  <si>
+    <t>Barak et al. mass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1542,7 +1557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1553,6 +1568,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1891,30 +1910,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L114" sqref="L114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="61.33203125" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="11" max="11" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="61.33203125" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1925,7 +1945,7 @@
         <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>127</v>
@@ -1937,22 +1957,25 @@
         <v>331</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1963,7 +1986,7 @@
         <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E2" t="s">
         <v>239</v>
@@ -1972,22 +1995,22 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J2" t="s">
-        <v>446</v>
-      </c>
-      <c r="L2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1998,7 +2021,7 @@
         <v>241</v>
       </c>
       <c r="D3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E3" t="s">
         <v>239</v>
@@ -2007,33 +2030,33 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J3" t="s">
-        <v>446</v>
-      </c>
-      <c r="L3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C4" t="s">
         <v>242</v>
       </c>
       <c r="D4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E4" t="s">
         <v>239</v>
@@ -2042,25 +2065,25 @@
         <v>243</v>
       </c>
       <c r="G4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J4" t="s">
-        <v>446</v>
-      </c>
-      <c r="K4" t="s">
+        <v>445</v>
+      </c>
+      <c r="L4" t="s">
         <v>393</v>
       </c>
-      <c r="L4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2071,7 +2094,7 @@
         <v>244</v>
       </c>
       <c r="D5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E5" t="s">
         <v>239</v>
@@ -2080,22 +2103,28 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J5" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K5" s="7">
+        <v>3.8509523809523812E-5</v>
       </c>
       <c r="L5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2106,7 +2135,7 @@
         <v>246</v>
       </c>
       <c r="D6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E6" t="s">
         <v>239</v>
@@ -2115,22 +2144,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J6" t="s">
-        <v>446</v>
-      </c>
-      <c r="L6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2141,7 +2170,7 @@
         <v>247</v>
       </c>
       <c r="D7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E7" t="s">
         <v>239</v>
@@ -2150,22 +2179,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L7" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="M7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2176,7 +2205,7 @@
         <v>248</v>
       </c>
       <c r="D8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E8" t="s">
         <v>239</v>
@@ -2185,22 +2214,22 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J8" t="s">
-        <v>446</v>
-      </c>
-      <c r="L8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2211,7 +2240,7 @@
         <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E9" t="s">
         <v>239</v>
@@ -2220,22 +2249,22 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J9" t="s">
-        <v>446</v>
-      </c>
-      <c r="L9" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2246,7 +2275,7 @@
         <v>250</v>
       </c>
       <c r="D10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E10" t="s">
         <v>239</v>
@@ -2255,22 +2284,28 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J10" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K10" s="7">
+        <v>3.0752380952380948E-5</v>
       </c>
       <c r="L10" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2281,7 +2316,7 @@
         <v>252</v>
       </c>
       <c r="D11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E11" t="s">
         <v>239</v>
@@ -2290,22 +2325,28 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J11" t="s">
-        <v>447</v>
+        <v>446</v>
+      </c>
+      <c r="K11" s="7">
+        <v>2.4510904761904763E-3</v>
       </c>
       <c r="L11" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2316,7 +2357,7 @@
         <v>253</v>
       </c>
       <c r="D12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E12" t="s">
         <v>239</v>
@@ -2325,22 +2366,22 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J12" t="s">
-        <v>446</v>
-      </c>
-      <c r="L12" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M12" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2351,7 +2392,7 @@
         <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E13" t="s">
         <v>255</v>
@@ -2360,22 +2401,22 @@
         <v>243</v>
       </c>
       <c r="G13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J13" t="s">
-        <v>446</v>
-      </c>
-      <c r="L13" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2386,7 +2427,7 @@
         <v>256</v>
       </c>
       <c r="D14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E14" t="s">
         <v>239</v>
@@ -2395,22 +2436,22 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J14" t="s">
-        <v>446</v>
-      </c>
-      <c r="L14" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2421,7 +2462,7 @@
         <v>257</v>
       </c>
       <c r="D15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E15" t="s">
         <v>239</v>
@@ -2430,22 +2471,22 @@
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J15" t="s">
-        <v>446</v>
-      </c>
-      <c r="L15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2456,7 +2497,7 @@
         <v>258</v>
       </c>
       <c r="D16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E16" t="s">
         <v>239</v>
@@ -2465,33 +2506,39 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J16" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1.0065238095238095E-4</v>
       </c>
       <c r="L16" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M16" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" t="s">
         <v>470</v>
       </c>
-      <c r="C17" t="s">
-        <v>471</v>
-      </c>
       <c r="D17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E17" t="s">
         <v>255</v>
@@ -2500,22 +2547,22 @@
         <v>243</v>
       </c>
       <c r="G17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J17" t="s">
-        <v>446</v>
-      </c>
-      <c r="L17" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2526,7 +2573,7 @@
         <v>260</v>
       </c>
       <c r="D18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E18" t="s">
         <v>255</v>
@@ -2535,22 +2582,22 @@
         <v>243</v>
       </c>
       <c r="G18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J18" t="s">
-        <v>446</v>
-      </c>
-      <c r="L18" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2561,7 +2608,7 @@
         <v>261</v>
       </c>
       <c r="D19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E19" t="s">
         <v>239</v>
@@ -2570,22 +2617,22 @@
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J19" t="s">
-        <v>446</v>
-      </c>
-      <c r="L19" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M19" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2596,7 +2643,7 @@
         <v>262</v>
       </c>
       <c r="D20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E20" t="s">
         <v>239</v>
@@ -2605,22 +2652,28 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J20" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1.1845263157894742E-3</v>
       </c>
       <c r="L20" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+      <c r="M20" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2631,7 +2684,7 @@
         <v>263</v>
       </c>
       <c r="D21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E21" t="s">
         <v>239</v>
@@ -2640,22 +2693,28 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J21" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2.4135285714285714E-3</v>
       </c>
       <c r="L21" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M21" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2666,7 +2725,7 @@
         <v>264</v>
       </c>
       <c r="D22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E22" t="s">
         <v>239</v>
@@ -2675,22 +2734,22 @@
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J22" t="s">
-        <v>446</v>
-      </c>
-      <c r="L22" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M22" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2701,7 +2760,7 @@
         <v>265</v>
       </c>
       <c r="D23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E23" t="s">
         <v>352</v>
@@ -2710,25 +2769,25 @@
         <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J23" t="s">
-        <v>446</v>
-      </c>
-      <c r="K23" t="s">
+        <v>445</v>
+      </c>
+      <c r="L23" t="s">
         <v>395</v>
       </c>
-      <c r="L23" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2739,7 +2798,7 @@
         <v>266</v>
       </c>
       <c r="D24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E24" t="s">
         <v>239</v>
@@ -2748,22 +2807,28 @@
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H24" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J24" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K24" s="7">
+        <v>4.7479999999999999E-4</v>
       </c>
       <c r="L24" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2774,7 +2839,7 @@
         <v>267</v>
       </c>
       <c r="D25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E25" t="s">
         <v>255</v>
@@ -2783,25 +2848,28 @@
         <v>243</v>
       </c>
       <c r="G25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J25" t="s">
-        <v>446</v>
-      </c>
-      <c r="K25" t="s">
-        <v>396</v>
+        <v>445</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1.1089523809523808E-4</v>
       </c>
       <c r="L25" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+      <c r="M25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2812,7 +2880,7 @@
         <v>268</v>
       </c>
       <c r="D26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E26" t="s">
         <v>239</v>
@@ -2821,22 +2889,22 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J26" t="s">
-        <v>446</v>
-      </c>
-      <c r="L26" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2847,7 +2915,7 @@
         <v>269</v>
       </c>
       <c r="D27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E27" t="s">
         <v>255</v>
@@ -2856,22 +2924,22 @@
         <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J27" t="s">
-        <v>446</v>
-      </c>
-      <c r="L27" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2882,7 +2950,7 @@
         <v>270</v>
       </c>
       <c r="D28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E28" t="s">
         <v>239</v>
@@ -2891,22 +2959,22 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J28" t="s">
-        <v>446</v>
-      </c>
-      <c r="L28" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M28" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2917,7 +2985,7 @@
         <v>271</v>
       </c>
       <c r="D29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E29" t="s">
         <v>239</v>
@@ -2926,22 +2994,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J29" t="s">
-        <v>446</v>
-      </c>
-      <c r="L29" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M29" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2952,7 +3020,7 @@
         <v>272</v>
       </c>
       <c r="D30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E30" t="s">
         <v>239</v>
@@ -2961,22 +3029,28 @@
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J30" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K30" s="7">
+        <v>7.9133333333333356E-4</v>
       </c>
       <c r="L30" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M30" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2987,7 +3061,7 @@
         <v>273</v>
       </c>
       <c r="D31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E31" t="s">
         <v>239</v>
@@ -2996,22 +3070,22 @@
         <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J31" t="s">
-        <v>446</v>
-      </c>
-      <c r="L31" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M31" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3022,7 +3096,7 @@
         <v>274</v>
       </c>
       <c r="D32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E32" t="s">
         <v>239</v>
@@ -3031,22 +3105,22 @@
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J32" t="s">
-        <v>446</v>
-      </c>
-      <c r="L32" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M32" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3057,7 +3131,7 @@
         <v>276</v>
       </c>
       <c r="D33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E33" t="s">
         <v>239</v>
@@ -3066,22 +3140,22 @@
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J33" t="s">
-        <v>446</v>
-      </c>
-      <c r="L33" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M33" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3092,7 +3166,7 @@
         <v>277</v>
       </c>
       <c r="D34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E34" t="s">
         <v>239</v>
@@ -3101,22 +3175,22 @@
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J34" t="s">
-        <v>446</v>
-      </c>
-      <c r="L34" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M34" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3127,7 +3201,7 @@
         <v>278</v>
       </c>
       <c r="D35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E35" t="s">
         <v>239</v>
@@ -3136,22 +3210,28 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J35" t="s">
-        <v>447</v>
+        <v>446</v>
+      </c>
+      <c r="K35" s="7">
+        <v>3.4894285714285711E-4</v>
       </c>
       <c r="L35" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M35" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3162,7 +3242,7 @@
         <v>279</v>
       </c>
       <c r="D36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E36" t="s">
         <v>239</v>
@@ -3171,22 +3251,22 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I36" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J36" t="s">
-        <v>447</v>
-      </c>
-      <c r="L36" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="M36" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3197,7 +3277,7 @@
         <v>280</v>
       </c>
       <c r="D37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E37" t="s">
         <v>255</v>
@@ -3206,33 +3286,33 @@
         <v>243</v>
       </c>
       <c r="G37" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H37" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J37" t="s">
-        <v>446</v>
-      </c>
-      <c r="L37" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M37" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C38" t="s">
         <v>281</v>
       </c>
       <c r="D38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E38" t="s">
         <v>239</v>
@@ -3241,25 +3321,25 @@
         <v>243</v>
       </c>
       <c r="G38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I38" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J38" t="s">
-        <v>446</v>
-      </c>
-      <c r="K38" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="L38" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+      <c r="M38" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3270,7 +3350,7 @@
         <v>282</v>
       </c>
       <c r="D39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E39" t="s">
         <v>255</v>
@@ -3279,22 +3359,22 @@
         <v>243</v>
       </c>
       <c r="G39" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J39" t="s">
-        <v>446</v>
-      </c>
-      <c r="L39" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M39" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3305,7 +3385,7 @@
         <v>283</v>
       </c>
       <c r="D40" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E40" t="s">
         <v>239</v>
@@ -3314,22 +3394,28 @@
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J40" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K40" s="7">
+        <v>2.7769999999999997E-4</v>
       </c>
       <c r="L40" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M40" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3340,7 +3426,7 @@
         <v>285</v>
       </c>
       <c r="D41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E41" t="s">
         <v>255</v>
@@ -3349,22 +3435,22 @@
         <v>243</v>
       </c>
       <c r="G41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H41" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J41" t="s">
-        <v>447</v>
-      </c>
-      <c r="L41" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="M41" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3375,7 +3461,7 @@
         <v>286</v>
       </c>
       <c r="D42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E42" t="s">
         <v>255</v>
@@ -3384,24 +3470,24 @@
         <v>243</v>
       </c>
       <c r="G42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J42" t="s">
-        <v>447</v>
-      </c>
-      <c r="L42" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="M42" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>160</v>
@@ -3410,7 +3496,7 @@
         <v>287</v>
       </c>
       <c r="D43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E43" t="s">
         <v>239</v>
@@ -3419,22 +3505,22 @@
         <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I43" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J43" t="s">
-        <v>446</v>
-      </c>
-      <c r="L43" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M43" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -3445,7 +3531,7 @@
         <v>290</v>
       </c>
       <c r="D44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E44" t="s">
         <v>239</v>
@@ -3454,25 +3540,25 @@
         <v>243</v>
       </c>
       <c r="G44" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H44" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I44" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J44" t="s">
-        <v>446</v>
-      </c>
-      <c r="K44" t="s">
+        <v>445</v>
+      </c>
+      <c r="L44" t="s">
         <v>288</v>
       </c>
-      <c r="L44" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -3483,7 +3569,7 @@
         <v>290</v>
       </c>
       <c r="D45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E45" t="s">
         <v>239</v>
@@ -3492,25 +3578,25 @@
         <v>243</v>
       </c>
       <c r="G45" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H45" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J45" t="s">
-        <v>446</v>
-      </c>
-      <c r="K45" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="L45" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="L45" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -3518,10 +3604,10 @@
         <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D46" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E46" t="s">
         <v>239</v>
@@ -3530,22 +3616,22 @@
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H46" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I46" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J46" t="s">
-        <v>447</v>
-      </c>
-      <c r="L46" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="M46" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -3556,7 +3642,7 @@
         <v>292</v>
       </c>
       <c r="D47" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E47" t="s">
         <v>239</v>
@@ -3565,22 +3651,22 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H47" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J47" t="s">
-        <v>446</v>
-      </c>
-      <c r="L47" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M47" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -3591,7 +3677,7 @@
         <v>293</v>
       </c>
       <c r="D48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E48" t="s">
         <v>239</v>
@@ -3600,25 +3686,25 @@
         <v>243</v>
       </c>
       <c r="G48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J48" t="s">
-        <v>446</v>
-      </c>
-      <c r="K48" t="s">
+        <v>445</v>
+      </c>
+      <c r="L48" t="s">
         <v>298</v>
       </c>
-      <c r="L48" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -3629,7 +3715,7 @@
         <v>294</v>
       </c>
       <c r="D49" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E49" t="s">
         <v>255</v>
@@ -3638,22 +3724,22 @@
         <v>243</v>
       </c>
       <c r="G49" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H49" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I49" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J49" t="s">
-        <v>447</v>
-      </c>
-      <c r="L49" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="M49" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -3664,7 +3750,7 @@
         <v>295</v>
       </c>
       <c r="D50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E50" t="s">
         <v>239</v>
@@ -3673,22 +3759,28 @@
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H50" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I50" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J50" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K50" s="7">
+        <v>3.7867333333333336E-3</v>
       </c>
       <c r="L50" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M50" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -3699,7 +3791,7 @@
         <v>297</v>
       </c>
       <c r="D51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E51" t="s">
         <v>239</v>
@@ -3708,22 +3800,28 @@
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H51" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I51" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J51" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K51" s="7">
+        <v>3.7058E-3</v>
       </c>
       <c r="L51" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M51" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -3734,7 +3832,7 @@
         <v>299</v>
       </c>
       <c r="D52" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E52" t="s">
         <v>239</v>
@@ -3743,25 +3841,25 @@
         <v>243</v>
       </c>
       <c r="G52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J52" t="s">
-        <v>446</v>
-      </c>
-      <c r="K52" t="s">
+        <v>445</v>
+      </c>
+      <c r="L52" t="s">
         <v>394</v>
       </c>
-      <c r="L52" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -3772,7 +3870,7 @@
         <v>300</v>
       </c>
       <c r="D53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E53" t="s">
         <v>239</v>
@@ -3781,22 +3879,22 @@
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I53" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J53" t="s">
-        <v>446</v>
-      </c>
-      <c r="L53" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M53" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -3807,7 +3905,7 @@
         <v>301</v>
       </c>
       <c r="D54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E54" t="s">
         <v>255</v>
@@ -3816,22 +3914,22 @@
         <v>243</v>
       </c>
       <c r="G54" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J54" t="s">
-        <v>446</v>
-      </c>
-      <c r="L54" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M54" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -3842,7 +3940,7 @@
         <v>302</v>
       </c>
       <c r="D55" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E55" t="s">
         <v>239</v>
@@ -3851,22 +3949,22 @@
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H55" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I55" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J55" t="s">
-        <v>446</v>
-      </c>
-      <c r="L55" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -3877,7 +3975,7 @@
         <v>243</v>
       </c>
       <c r="D56" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E56" t="s">
         <v>239</v>
@@ -3886,27 +3984,27 @@
         <v>243</v>
       </c>
       <c r="G56" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I56" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J56" t="s">
-        <v>446</v>
-      </c>
-      <c r="K56" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="L56" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+      <c r="M56" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>303</v>
@@ -3915,7 +4013,7 @@
         <v>304</v>
       </c>
       <c r="D57" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E57" t="s">
         <v>239</v>
@@ -3924,22 +4022,22 @@
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H57" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I57" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J57" t="s">
-        <v>446</v>
-      </c>
-      <c r="L57" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M57" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -3950,7 +4048,7 @@
         <v>306</v>
       </c>
       <c r="D58" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E58" t="s">
         <v>239</v>
@@ -3959,25 +4057,25 @@
         <v>243</v>
       </c>
       <c r="G58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J58" t="s">
-        <v>446</v>
-      </c>
-      <c r="K58" t="s">
+        <v>445</v>
+      </c>
+      <c r="L58" t="s">
         <v>305</v>
       </c>
-      <c r="L58" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -3988,7 +4086,7 @@
         <v>307</v>
       </c>
       <c r="D59" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E59" t="s">
         <v>239</v>
@@ -3997,22 +4095,22 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H59" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J59" t="s">
-        <v>446</v>
-      </c>
-      <c r="L59" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M59" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -4023,7 +4121,7 @@
         <v>308</v>
       </c>
       <c r="D60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E60" t="s">
         <v>239</v>
@@ -4032,22 +4130,22 @@
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H60" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I60" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J60" t="s">
-        <v>446</v>
-      </c>
-      <c r="L60" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M60" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -4058,7 +4156,7 @@
         <v>309</v>
       </c>
       <c r="D61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E61" t="s">
         <v>239</v>
@@ -4067,22 +4165,22 @@
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I61" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J61" t="s">
-        <v>446</v>
-      </c>
-      <c r="L61" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M61" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -4093,7 +4191,7 @@
         <v>310</v>
       </c>
       <c r="D62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E62" t="s">
         <v>239</v>
@@ -4102,22 +4200,22 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I62" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J62" t="s">
-        <v>446</v>
-      </c>
-      <c r="L62" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M62" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -4128,7 +4226,7 @@
         <v>311</v>
       </c>
       <c r="D63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E63" t="s">
         <v>239</v>
@@ -4137,22 +4235,22 @@
         <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I63" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J63" t="s">
-        <v>446</v>
-      </c>
-      <c r="L63" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M63" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -4163,7 +4261,7 @@
         <v>312</v>
       </c>
       <c r="D64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E64" t="s">
         <v>239</v>
@@ -4172,22 +4270,28 @@
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J64" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K64" s="7">
+        <v>6.7609523809523801E-5</v>
       </c>
       <c r="L64" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M64" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -4198,7 +4302,7 @@
         <v>314</v>
       </c>
       <c r="D65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E65" t="s">
         <v>255</v>
@@ -4207,33 +4311,33 @@
         <v>243</v>
       </c>
       <c r="G65" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H65" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I65" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J65" t="s">
-        <v>446</v>
-      </c>
-      <c r="L65" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M65" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C66" t="s">
         <v>316</v>
       </c>
       <c r="D66" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E66" t="s">
         <v>239</v>
@@ -4242,25 +4346,25 @@
         <v>243</v>
       </c>
       <c r="G66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H66" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I66" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J66" t="s">
-        <v>446</v>
-      </c>
-      <c r="K66" t="s">
+        <v>445</v>
+      </c>
+      <c r="L66" t="s">
         <v>315</v>
       </c>
-      <c r="L66" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -4271,7 +4375,7 @@
         <v>317</v>
       </c>
       <c r="D67" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E67" t="s">
         <v>239</v>
@@ -4280,22 +4384,28 @@
         <v>6</v>
       </c>
       <c r="G67" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H67" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I67" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J67" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K67" s="7">
+        <v>1.006904761904762E-4</v>
       </c>
       <c r="L67" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M67" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -4306,7 +4416,7 @@
         <v>318</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E68" t="s">
         <v>255</v>
@@ -4315,25 +4425,25 @@
         <v>243</v>
       </c>
       <c r="G68" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H68" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I68" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J68" t="s">
-        <v>446</v>
-      </c>
-      <c r="K68" t="s">
+        <v>445</v>
+      </c>
+      <c r="L68" t="s">
         <v>319</v>
       </c>
-      <c r="L68" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -4341,10 +4451,10 @@
         <v>186</v>
       </c>
       <c r="C69" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D69" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E69" t="s">
         <v>239</v>
@@ -4353,22 +4463,22 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H69" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I69" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J69" t="s">
-        <v>446</v>
-      </c>
-      <c r="L69" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M69" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -4379,7 +4489,7 @@
         <v>320</v>
       </c>
       <c r="D70" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E70" t="s">
         <v>239</v>
@@ -4388,22 +4498,22 @@
         <v>6</v>
       </c>
       <c r="G70" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H70" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I70" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J70" t="s">
-        <v>446</v>
-      </c>
-      <c r="L70" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M70" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -4414,7 +4524,7 @@
         <v>321</v>
       </c>
       <c r="D71" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E71" t="s">
         <v>255</v>
@@ -4423,22 +4533,22 @@
         <v>243</v>
       </c>
       <c r="G71" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H71" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I71" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J71" t="s">
-        <v>446</v>
-      </c>
-      <c r="L71" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M71" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -4449,7 +4559,7 @@
         <v>322</v>
       </c>
       <c r="D72" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E72" t="s">
         <v>239</v>
@@ -4458,22 +4568,22 @@
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H72" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I72" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J72" t="s">
-        <v>446</v>
-      </c>
-      <c r="L72" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M72" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -4481,10 +4591,10 @@
         <v>187</v>
       </c>
       <c r="C73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D73" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E73" t="s">
         <v>255</v>
@@ -4493,22 +4603,22 @@
         <v>243</v>
       </c>
       <c r="G73" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I73" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J73" t="s">
-        <v>446</v>
-      </c>
-      <c r="L73" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M73" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -4519,7 +4629,7 @@
         <v>323</v>
       </c>
       <c r="D74" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E74" t="s">
         <v>239</v>
@@ -4528,22 +4638,22 @@
         <v>6</v>
       </c>
       <c r="G74" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H74" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I74" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J74" t="s">
-        <v>446</v>
-      </c>
-      <c r="L74" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M74" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -4554,7 +4664,7 @@
         <v>324</v>
       </c>
       <c r="D75" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E75" t="s">
         <v>239</v>
@@ -4563,22 +4673,22 @@
         <v>5</v>
       </c>
       <c r="G75" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I75" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J75" t="s">
-        <v>446</v>
-      </c>
-      <c r="L75" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M75" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -4589,7 +4699,7 @@
         <v>325</v>
       </c>
       <c r="D76" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E76" t="s">
         <v>239</v>
@@ -4598,22 +4708,22 @@
         <v>5</v>
       </c>
       <c r="G76" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I76" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J76" t="s">
-        <v>446</v>
-      </c>
-      <c r="L76" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M76" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -4624,7 +4734,7 @@
         <v>326</v>
       </c>
       <c r="D77" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E77" t="s">
         <v>239</v>
@@ -4633,22 +4743,22 @@
         <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H77" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I77" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J77" t="s">
-        <v>446</v>
-      </c>
-      <c r="L77" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M77" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -4659,7 +4769,7 @@
         <v>327</v>
       </c>
       <c r="D78" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E78" t="s">
         <v>239</v>
@@ -4668,25 +4778,25 @@
         <v>243</v>
       </c>
       <c r="G78" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H78" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I78" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J78" t="s">
-        <v>446</v>
-      </c>
-      <c r="K78" t="s">
+        <v>445</v>
+      </c>
+      <c r="L78" t="s">
         <v>328</v>
       </c>
-      <c r="L78" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -4697,7 +4807,7 @@
         <v>329</v>
       </c>
       <c r="D79" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E79" t="s">
         <v>239</v>
@@ -4706,22 +4816,22 @@
         <v>6</v>
       </c>
       <c r="G79" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H79" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J79" t="s">
-        <v>446</v>
-      </c>
-      <c r="L79" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M79" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -4732,7 +4842,7 @@
         <v>330</v>
       </c>
       <c r="D80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E80" t="s">
         <v>255</v>
@@ -4741,22 +4851,28 @@
         <v>243</v>
       </c>
       <c r="G80" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H80" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I80" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J80" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K80" s="7">
+        <v>1.3174857142857141E-3</v>
       </c>
       <c r="L80" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M80" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -4767,7 +4883,7 @@
         <v>332</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E81" t="s">
         <v>255</v>
@@ -4776,25 +4892,25 @@
         <v>243</v>
       </c>
       <c r="G81" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H81" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I81" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J81" t="s">
-        <v>446</v>
-      </c>
-      <c r="K81" t="s">
+        <v>445</v>
+      </c>
+      <c r="L81" t="s">
         <v>333</v>
       </c>
-      <c r="L81" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M81" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -4805,7 +4921,7 @@
         <v>334</v>
       </c>
       <c r="D82" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E82" t="s">
         <v>255</v>
@@ -4814,25 +4930,25 @@
         <v>243</v>
       </c>
       <c r="G82" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H82" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I82" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J82" t="s">
+        <v>451</v>
+      </c>
+      <c r="L82" t="s">
         <v>452</v>
       </c>
-      <c r="K82" t="s">
-        <v>453</v>
-      </c>
-      <c r="L82" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M82" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -4843,7 +4959,7 @@
         <v>335</v>
       </c>
       <c r="D83" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E83" t="s">
         <v>239</v>
@@ -4852,22 +4968,28 @@
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H83" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I83" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J83" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K83" s="7">
+        <v>3.5858095238095237E-4</v>
       </c>
       <c r="L83" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M83" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -4878,7 +5000,7 @@
         <v>336</v>
       </c>
       <c r="D84" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E84" t="s">
         <v>239</v>
@@ -4887,22 +5009,28 @@
         <v>2</v>
       </c>
       <c r="G84" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H84" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I84" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J84" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K84" s="7">
+        <v>3.7554285714285716E-4</v>
       </c>
       <c r="L84" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M84" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -4913,7 +5041,7 @@
         <v>337</v>
       </c>
       <c r="D85" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E85" t="s">
         <v>239</v>
@@ -4922,33 +5050,33 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H85" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I85" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J85" t="s">
-        <v>446</v>
-      </c>
-      <c r="L85" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M85" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>82</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C86" t="s">
         <v>338</v>
       </c>
       <c r="D86" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E86" t="s">
         <v>239</v>
@@ -4957,25 +5085,25 @@
         <v>243</v>
       </c>
       <c r="G86" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H86" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J86" t="s">
-        <v>446</v>
-      </c>
-      <c r="K86" t="s">
+        <v>445</v>
+      </c>
+      <c r="L86" t="s">
         <v>339</v>
       </c>
-      <c r="L86" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M86" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -4986,7 +5114,7 @@
         <v>340</v>
       </c>
       <c r="D87" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E87" t="s">
         <v>239</v>
@@ -4995,22 +5123,22 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H87" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I87" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J87" t="s">
-        <v>446</v>
-      </c>
-      <c r="L87" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M87" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -5021,7 +5149,7 @@
         <v>341</v>
       </c>
       <c r="D88" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E88" t="s">
         <v>239</v>
@@ -5030,22 +5158,22 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H88" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I88" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J88" t="s">
-        <v>447</v>
-      </c>
-      <c r="L88" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="M88" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -5056,7 +5184,7 @@
         <v>342</v>
       </c>
       <c r="D89" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E89" t="s">
         <v>239</v>
@@ -5065,22 +5193,28 @@
         <v>3</v>
       </c>
       <c r="G89" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H89" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I89" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J89" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K89" s="7">
+        <v>2.6122000000000005E-4</v>
       </c>
       <c r="L89" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+      <c r="M89" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -5091,7 +5225,7 @@
         <v>343</v>
       </c>
       <c r="D90" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E90" t="s">
         <v>255</v>
@@ -5100,22 +5234,22 @@
         <v>243</v>
       </c>
       <c r="G90" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H90" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I90" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J90" t="s">
-        <v>446</v>
-      </c>
-      <c r="L90" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M90" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -5126,7 +5260,7 @@
         <v>344</v>
       </c>
       <c r="D91" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E91" t="s">
         <v>239</v>
@@ -5135,22 +5269,22 @@
         <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H91" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I91" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J91" t="s">
-        <v>446</v>
-      </c>
-      <c r="L91" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M91" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -5161,7 +5295,7 @@
         <v>345</v>
       </c>
       <c r="D92" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E92" t="s">
         <v>239</v>
@@ -5170,22 +5304,28 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H92" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I92" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J92" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K92" s="7">
+        <v>3.9891428571428567E-4</v>
       </c>
       <c r="L92" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M92" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -5196,7 +5336,7 @@
         <v>346</v>
       </c>
       <c r="D93" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E93" t="s">
         <v>255</v>
@@ -5205,22 +5345,28 @@
         <v>243</v>
       </c>
       <c r="G93" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H93" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I93" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J93" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K93" s="7">
+        <v>1.6680476190476191E-4</v>
       </c>
       <c r="L93" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M93" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -5231,7 +5377,7 @@
         <v>347</v>
       </c>
       <c r="D94" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E94" t="s">
         <v>239</v>
@@ -5240,25 +5386,25 @@
         <v>243</v>
       </c>
       <c r="G94" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H94" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I94" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J94" t="s">
-        <v>446</v>
-      </c>
-      <c r="K94" t="s">
+        <v>445</v>
+      </c>
+      <c r="L94" t="s">
         <v>348</v>
       </c>
-      <c r="L94" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -5269,7 +5415,7 @@
         <v>349</v>
       </c>
       <c r="D95" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E95" t="s">
         <v>239</v>
@@ -5278,22 +5424,22 @@
         <v>5</v>
       </c>
       <c r="G95" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H95" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I95" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J95" t="s">
-        <v>446</v>
-      </c>
-      <c r="L95" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M95" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -5304,7 +5450,7 @@
         <v>350</v>
       </c>
       <c r="D96" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E96" t="s">
         <v>239</v>
@@ -5313,22 +5459,28 @@
         <v>4</v>
       </c>
       <c r="G96" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H96" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I96" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J96" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K96" s="7">
+        <v>8.8523809523809537E-5</v>
       </c>
       <c r="L96" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M96" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -5339,7 +5491,7 @@
         <v>351</v>
       </c>
       <c r="D97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E97" t="s">
         <v>239</v>
@@ -5348,22 +5500,22 @@
         <v>4</v>
       </c>
       <c r="G97" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H97" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I97" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J97" t="s">
-        <v>446</v>
-      </c>
-      <c r="L97" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M97" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -5374,7 +5526,7 @@
         <v>354</v>
       </c>
       <c r="D98" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E98" t="s">
         <v>352</v>
@@ -5383,25 +5535,25 @@
         <v>243</v>
       </c>
       <c r="G98" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H98" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I98" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J98" t="s">
-        <v>446</v>
-      </c>
-      <c r="K98" t="s">
+        <v>445</v>
+      </c>
+      <c r="L98" t="s">
         <v>353</v>
       </c>
-      <c r="L98" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M98" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -5412,7 +5564,7 @@
         <v>355</v>
       </c>
       <c r="D99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E99" t="s">
         <v>239</v>
@@ -5421,22 +5573,28 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H99" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I99" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J99" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K99" s="7">
+        <v>2.3913333333333334E-4</v>
       </c>
       <c r="L99" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M99" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -5447,7 +5605,7 @@
         <v>356</v>
       </c>
       <c r="D100" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E100" t="s">
         <v>239</v>
@@ -5456,22 +5614,22 @@
         <v>5</v>
       </c>
       <c r="G100" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H100" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I100" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J100" t="s">
-        <v>446</v>
-      </c>
-      <c r="L100" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M100" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -5482,7 +5640,7 @@
         <v>357</v>
       </c>
       <c r="D101" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E101" t="s">
         <v>255</v>
@@ -5491,22 +5649,22 @@
         <v>243</v>
       </c>
       <c r="G101" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H101" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I101" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J101" t="s">
-        <v>446</v>
-      </c>
-      <c r="L101" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M101" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -5517,7 +5675,7 @@
         <v>358</v>
       </c>
       <c r="D102" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E102" t="s">
         <v>239</v>
@@ -5526,22 +5684,22 @@
         <v>4</v>
       </c>
       <c r="G102" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H102" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I102" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J102" t="s">
-        <v>446</v>
-      </c>
-      <c r="L102" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M102" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -5552,7 +5710,7 @@
         <v>359</v>
       </c>
       <c r="D103" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E103" t="s">
         <v>239</v>
@@ -5561,22 +5719,28 @@
         <v>5</v>
       </c>
       <c r="G103" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H103" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I103" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J103" t="s">
-        <v>447</v>
+        <v>446</v>
+      </c>
+      <c r="K103" s="7">
+        <v>1.8167523809523812E-3</v>
       </c>
       <c r="L103" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M103" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -5587,7 +5751,7 @@
         <v>360</v>
       </c>
       <c r="D104" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E104" t="s">
         <v>239</v>
@@ -5596,22 +5760,22 @@
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H104" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I104" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J104" t="s">
-        <v>446</v>
-      </c>
-      <c r="L104" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M104" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -5622,7 +5786,7 @@
         <v>361</v>
       </c>
       <c r="D105" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E105" t="s">
         <v>239</v>
@@ -5631,22 +5795,22 @@
         <v>5</v>
       </c>
       <c r="G105" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H105" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I105" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J105" t="s">
-        <v>446</v>
-      </c>
-      <c r="L105" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M105" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -5657,7 +5821,7 @@
         <v>362</v>
       </c>
       <c r="D106" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E106" t="s">
         <v>239</v>
@@ -5666,22 +5830,22 @@
         <v>6</v>
       </c>
       <c r="G106" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H106" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I106" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J106" t="s">
-        <v>446</v>
-      </c>
-      <c r="L106" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M106" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -5692,7 +5856,7 @@
         <v>363</v>
       </c>
       <c r="D107" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E107" t="s">
         <v>239</v>
@@ -5701,22 +5865,22 @@
         <v>4</v>
       </c>
       <c r="G107" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H107" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I107" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J107" t="s">
-        <v>447</v>
-      </c>
-      <c r="L107" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="M107" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -5727,7 +5891,7 @@
         <v>365</v>
       </c>
       <c r="D108" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E108" t="s">
         <v>255</v>
@@ -5736,25 +5900,25 @@
         <v>243</v>
       </c>
       <c r="G108" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H108" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I108" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J108" t="s">
-        <v>447</v>
-      </c>
-      <c r="K108" t="s">
+        <v>446</v>
+      </c>
+      <c r="L108" t="s">
         <v>391</v>
       </c>
-      <c r="L108" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -5765,7 +5929,7 @@
         <v>366</v>
       </c>
       <c r="D109" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E109" t="s">
         <v>239</v>
@@ -5774,22 +5938,22 @@
         <v>2</v>
       </c>
       <c r="G109" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H109" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I109" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J109" t="s">
-        <v>446</v>
-      </c>
-      <c r="L109" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M109" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>106</v>
       </c>
@@ -5800,7 +5964,7 @@
         <v>367</v>
       </c>
       <c r="D110" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E110" t="s">
         <v>239</v>
@@ -5809,22 +5973,28 @@
         <v>4</v>
       </c>
       <c r="G110" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H110" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I110" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J110" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K110" s="7">
+        <v>1.0158138095238096E-2</v>
       </c>
       <c r="L110" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M110" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -5835,7 +6005,7 @@
         <v>369</v>
       </c>
       <c r="D111" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E111" t="s">
         <v>239</v>
@@ -5844,22 +6014,28 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H111" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I111" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J111" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K111" s="7">
+        <v>7.3833333333333344E-5</v>
       </c>
       <c r="L111" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M111" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -5870,7 +6046,7 @@
         <v>370</v>
       </c>
       <c r="D112" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E112" t="s">
         <v>239</v>
@@ -5879,22 +6055,22 @@
         <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H112" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I112" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J112" t="s">
-        <v>446</v>
-      </c>
-      <c r="L112" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M112" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>109</v>
       </c>
@@ -5905,7 +6081,7 @@
         <v>371</v>
       </c>
       <c r="D113" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E113" t="s">
         <v>239</v>
@@ -5914,22 +6090,28 @@
         <v>5</v>
       </c>
       <c r="G113" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H113" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I113" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J113" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K113" s="7">
+        <v>6.5145833333333321E-4</v>
       </c>
       <c r="L113" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+      <c r="M113" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -5940,7 +6122,7 @@
         <v>372</v>
       </c>
       <c r="D114" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E114" t="s">
         <v>239</v>
@@ -5949,22 +6131,22 @@
         <v>4</v>
       </c>
       <c r="G114" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H114" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I114" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J114" t="s">
-        <v>447</v>
-      </c>
-      <c r="L114" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="M114" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>111</v>
       </c>
@@ -5975,7 +6157,7 @@
         <v>373</v>
       </c>
       <c r="D115" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E115" t="s">
         <v>239</v>
@@ -5984,22 +6166,28 @@
         <v>5</v>
       </c>
       <c r="G115" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H115" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I115" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J115" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K115" s="7">
+        <v>1.1335714285714288E-4</v>
       </c>
       <c r="L115" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M115" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -6010,7 +6198,7 @@
         <v>374</v>
       </c>
       <c r="D116" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E116" t="s">
         <v>239</v>
@@ -6019,22 +6207,22 @@
         <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H116" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I116" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J116" t="s">
-        <v>447</v>
-      </c>
-      <c r="L116" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="M116" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>113</v>
       </c>
@@ -6045,7 +6233,7 @@
         <v>375</v>
       </c>
       <c r="D117" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E117" t="s">
         <v>239</v>
@@ -6054,22 +6242,28 @@
         <v>6</v>
       </c>
       <c r="G117" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H117" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I117" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J117" t="s">
-        <v>447</v>
+        <v>446</v>
+      </c>
+      <c r="K117" s="7">
+        <v>2.6007619047619043E-3</v>
       </c>
       <c r="L117" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="M117" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>114</v>
       </c>
@@ -6080,7 +6274,7 @@
         <v>377</v>
       </c>
       <c r="D118" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E118" t="s">
         <v>239</v>
@@ -6089,22 +6283,22 @@
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H118" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I118" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J118" t="s">
-        <v>446</v>
-      </c>
-      <c r="L118" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M118" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>115</v>
       </c>
@@ -6115,7 +6309,7 @@
         <v>378</v>
       </c>
       <c r="D119" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E119" t="s">
         <v>239</v>
@@ -6124,33 +6318,39 @@
         <v>4</v>
       </c>
       <c r="G119" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H119" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I119" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J119" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="K119" s="7">
+        <v>3.0874999999999994E-4</v>
       </c>
       <c r="L119" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+      <c r="M119" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>116</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C120" t="s">
         <v>379</v>
       </c>
       <c r="D120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E120" t="s">
         <v>239</v>
@@ -6159,25 +6359,25 @@
         <v>243</v>
       </c>
       <c r="G120" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H120" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I120" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J120" t="s">
-        <v>446</v>
-      </c>
-      <c r="K120" t="s">
+        <v>445</v>
+      </c>
+      <c r="L120" t="s">
         <v>380</v>
       </c>
-      <c r="L120" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M120" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>117</v>
       </c>
@@ -6188,7 +6388,7 @@
         <v>381</v>
       </c>
       <c r="D121" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E121" t="s">
         <v>255</v>
@@ -6197,22 +6397,22 @@
         <v>243</v>
       </c>
       <c r="G121" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H121" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I121" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J121" t="s">
-        <v>446</v>
-      </c>
-      <c r="L121" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M121" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>118</v>
       </c>
@@ -6223,7 +6423,7 @@
         <v>382</v>
       </c>
       <c r="D122" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E122" t="s">
         <v>255</v>
@@ -6232,22 +6432,22 @@
         <v>243</v>
       </c>
       <c r="G122" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H122" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I122" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J122" t="s">
-        <v>446</v>
-      </c>
-      <c r="L122" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M122" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>119</v>
       </c>
@@ -6258,7 +6458,7 @@
         <v>383</v>
       </c>
       <c r="D123" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E123" t="s">
         <v>239</v>
@@ -6267,22 +6467,22 @@
         <v>3</v>
       </c>
       <c r="G123" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H123" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I123" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J123" t="s">
-        <v>446</v>
-      </c>
-      <c r="L123" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M123" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>120</v>
       </c>
@@ -6293,7 +6493,7 @@
         <v>384</v>
       </c>
       <c r="D124" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E124" t="s">
         <v>239</v>
@@ -6302,22 +6502,22 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H124" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I124" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J124" t="s">
-        <v>447</v>
-      </c>
-      <c r="L124" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="M124" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>121</v>
       </c>
@@ -6328,7 +6528,7 @@
         <v>385</v>
       </c>
       <c r="D125" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E125" t="s">
         <v>239</v>
@@ -6337,33 +6537,33 @@
         <v>2</v>
       </c>
       <c r="G125" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H125" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I125" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J125" t="s">
-        <v>446</v>
-      </c>
-      <c r="L125" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M125" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C126" t="s">
         <v>386</v>
       </c>
       <c r="D126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E126" t="s">
         <v>255</v>
@@ -6372,25 +6572,28 @@
         <v>243</v>
       </c>
       <c r="G126" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H126" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J126" t="s">
-        <v>446</v>
-      </c>
-      <c r="K126" t="s">
-        <v>477</v>
+        <v>445</v>
+      </c>
+      <c r="K126" s="7">
+        <v>1.0200000000000003E-4</v>
       </c>
       <c r="L126" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+      <c r="M126" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>122</v>
       </c>
@@ -6401,7 +6604,7 @@
         <v>387</v>
       </c>
       <c r="D127" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E127" t="s">
         <v>239</v>
@@ -6410,22 +6613,22 @@
         <v>4</v>
       </c>
       <c r="G127" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H127" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I127" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J127" t="s">
-        <v>446</v>
-      </c>
-      <c r="L127" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="M127" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -6436,7 +6639,7 @@
         <v>388</v>
       </c>
       <c r="D128" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E128" t="s">
         <v>239</v>
@@ -6445,25 +6648,25 @@
         <v>243</v>
       </c>
       <c r="G128" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H128" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I128" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J128" t="s">
-        <v>446</v>
-      </c>
-      <c r="K128" t="s">
+        <v>445</v>
+      </c>
+      <c r="L128" t="s">
         <v>392</v>
       </c>
-      <c r="L128" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>124</v>
       </c>
@@ -6474,7 +6677,7 @@
         <v>389</v>
       </c>
       <c r="D129" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E129" t="s">
         <v>239</v>
@@ -6483,26 +6686,26 @@
         <v>2</v>
       </c>
       <c r="G129" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H129" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I129" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J129" t="s">
-        <v>446</v>
-      </c>
-      <c r="K129" t="s">
+        <v>445</v>
+      </c>
+      <c r="L129" t="s">
         <v>390</v>
       </c>
-      <c r="L129" t="s">
-        <v>464</v>
+      <c r="M129" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G129" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="K1:K129" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>